--- a/public/data/magic.xlsx
+++ b/public/data/magic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="33">
   <si>
     <t xml:space="preserve">Edición</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Cantidad</t>
   </si>
   <si>
+    <t xml:space="preserve">Foil</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTC</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t xml:space="preserve">M3C</t>
   </si>
   <si>
-    <t xml:space="preserve">Foil</t>
-  </si>
-  <si>
     <t xml:space="preserve">G18</t>
   </si>
   <si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t xml:space="preserve">DMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTP</t>
   </si>
 </sst>
 </file>
@@ -183,12 +201,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,10 +403,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F1048576"/>
+  <dimension ref="B1:F188"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E188" activeCellId="0" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,7 +415,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,16 +431,19 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -426,13 +451,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -440,13 +465,13 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -454,13 +479,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -468,13 +493,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -482,13 +507,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -496,13 +521,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>1</v>
@@ -510,13 +535,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -524,13 +549,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -538,13 +563,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>308</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
@@ -552,13 +577,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>325</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -566,13 +591,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>453</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1</v>
@@ -580,13 +605,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>276</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1</v>
@@ -594,13 +619,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>1</v>
@@ -608,13 +633,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>1</v>
@@ -622,30 +647,30 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>1</v>
@@ -653,13 +678,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>270</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>1</v>
@@ -667,13 +692,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>1</v>
@@ -681,30 +706,30 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>363</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>1</v>
@@ -712,13 +737,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>178</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>1</v>
@@ -726,13 +751,13 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>1</v>
@@ -746,13 +771,13 @@
         <v>15</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -763,7 +788,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
@@ -771,13 +796,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1</v>
@@ -785,13 +810,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1</v>
@@ -799,13 +824,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>232</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1</v>
@@ -813,13 +838,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1</v>
@@ -827,13 +852,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1</v>
@@ -841,13 +866,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1</v>
@@ -861,7 +886,7 @@
         <v>165</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1</v>
@@ -875,7 +900,7 @@
         <v>67</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1</v>
@@ -883,13 +908,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>92</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
@@ -897,13 +922,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
@@ -917,7 +942,7 @@
         <v>255</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1</v>
@@ -931,7 +956,7 @@
         <v>72</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1</v>
@@ -939,13 +964,13 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>207</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
@@ -959,7 +984,7 @@
         <v>99</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
@@ -967,13 +992,13 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>116</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
@@ -987,7 +1012,7 @@
         <v>282</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
@@ -1001,7 +1026,7 @@
         <v>258</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
@@ -1009,13 +1034,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>329</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
@@ -1029,7 +1054,7 @@
         <v>192</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
@@ -1037,13 +1062,13 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>322</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
@@ -1057,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
@@ -1071,7 +1096,7 @@
         <v>607</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
@@ -1079,13 +1104,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>94</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
@@ -1099,13 +1124,13 @@
         <v>163</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1116,7 +1141,7 @@
         <v>143</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
@@ -1130,7 +1155,7 @@
         <v>171</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
@@ -1138,13 +1163,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>124</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
@@ -1158,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1</v>
@@ -1166,13 +1191,13 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>192</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1</v>
@@ -1186,7 +1211,7 @@
         <v>301</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1</v>
@@ -1200,7 +1225,7 @@
         <v>147</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
@@ -1214,7 +1239,7 @@
         <v>129</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
@@ -1228,14 +1253,1857 @@
         <v>61</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C61" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>523</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/data/magic.xlsx
+++ b/public/data/magic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="42">
   <si>
     <t xml:space="preserve">Edición</t>
   </si>
@@ -120,6 +120,33 @@
   <si>
     <t xml:space="preserve">OTP</t>
   </si>
+  <si>
+    <t xml:space="preserve">STA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN2</t>
+  </si>
 </sst>
 </file>
 
@@ -201,12 +228,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,2704 +438,4002 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F188"/>
+  <dimension ref="B1:F279"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E188" activeCellId="0" sqref="E188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E279" activeCellId="0" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="n">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>308</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="n">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>453</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="n">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="n">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="n">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="n">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="n">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="n">
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="n">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="n">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="n">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="n">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="n">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>178</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="n">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="n">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="0" t="n">
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="0" t="n">
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="0" t="n">
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="0" t="n">
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="0" t="n">
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="0" t="n">
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="0" t="n">
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="0" t="n">
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="0" t="n">
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="0" t="n">
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="0" t="n">
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="0" t="n">
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="0" t="n">
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="0" t="n">
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>523</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="0" t="s">
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="0" t="n">
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="0" t="n">
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="0" t="n">
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="0" t="s">
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="0" t="n">
+      <c r="D68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="0" t="n">
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="0" t="n">
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="C71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="0" t="n">
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="0" t="n">
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="0" t="n">
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="0" t="n">
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="0" t="n">
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="0" t="n">
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="0" t="n">
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="0" t="n">
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="0" t="n">
+      <c r="B82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="0" t="n">
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="0" t="n">
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="0" t="n">
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="0" t="n">
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="0" t="n">
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="0" t="n">
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" s="0" t="s">
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="0" t="n">
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="0" t="n">
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="0" t="n">
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="0" t="n">
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="0" t="n">
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="0" t="n">
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="0" t="n">
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="0" t="n">
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="0" t="n">
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="0" t="n">
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="0" t="n">
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="0" t="n">
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="0" t="n">
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="0" t="n">
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="0" t="n">
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="0" t="n">
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="0" t="n">
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="0" t="n">
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="0" t="n">
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="0" t="n">
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="0" t="n">
+      <c r="D101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="0" t="n">
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="0" t="n">
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="0" t="n">
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="0" t="n">
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="0" t="n">
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="0" t="n">
+      <c r="D107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="0" t="n">
+      <c r="B108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="0" t="n">
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="0" t="n">
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="0" t="n">
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="0" t="n">
+      <c r="D110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="0" t="n">
+      <c r="B111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="0" t="n">
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="0" t="n">
+      <c r="B112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="0" t="n">
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="0" t="n">
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="0" t="n">
+      <c r="D114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="0" t="n">
+      <c r="B115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="0" t="n">
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="0" t="n">
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="0" t="n">
+      <c r="D117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="0" t="n">
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="0" t="n">
+      <c r="D118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="0" t="n">
+      <c r="D119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="0" t="n">
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="0" t="n">
+      <c r="D120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="0" t="n">
+      <c r="B121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="0" t="n">
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122" s="0" t="n">
+      <c r="D122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="0" t="n">
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="0" t="n">
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="0" t="n">
+      <c r="B124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="0" t="n">
+      <c r="D124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="0" t="n">
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="0" t="n">
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="n">
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="D126" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="0" t="n">
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="0" t="n">
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="0" t="n">
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="0" t="n">
+      <c r="B128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="0" t="n">
+      <c r="D128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="0" t="n">
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="0" t="n">
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="0" t="n">
+      <c r="B130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="0" t="n">
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="0" t="n">
+      <c r="B131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="0" t="n">
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="0" t="n">
+      <c r="B132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="D132" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="0" t="n">
+      <c r="D132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="0" t="n">
+      <c r="B133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="D133" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="0" t="n">
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F133" s="0" t="s">
+      <c r="F133" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="0" t="n">
+      <c r="B134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="0" t="n">
+      <c r="D134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="0" t="n">
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="0" t="n">
+      <c r="D135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="0" t="n">
+      <c r="B136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="0" t="n">
+      <c r="D136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="0" t="n">
+      <c r="B137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="D137" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" s="0" t="s">
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="0" t="n">
+      <c r="B138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="0" t="n">
+      <c r="D138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="0" t="n">
+      <c r="B139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="D139" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="0" t="n">
+      <c r="D139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="D140" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="0" t="n">
+      <c r="D140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="D141" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="0" t="n">
+      <c r="D141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="D142" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="0" t="n">
+      <c r="D142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="D143" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="0" t="n">
+      <c r="D143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D144" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="0" t="n">
+      <c r="D144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D145" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="0" t="n">
+      <c r="D145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D146" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="0" t="n">
+      <c r="D146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D147" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="0" t="n">
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D148" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="0" t="n">
+      <c r="D148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C149" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="0" t="n">
+      <c r="C149" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D150" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="0" t="n">
+      <c r="D150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D151" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="0" t="n">
+      <c r="D151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D152" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="0" t="n">
+      <c r="D152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" s="0" t="n">
+      <c r="B153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D153" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E153" s="0" t="n">
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="0" t="n">
+      <c r="B154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D154" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" s="0" t="n">
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="0" t="n">
+      <c r="B155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D155" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="0" t="n">
+      <c r="D155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D156" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E156" s="0" t="n">
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D157" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E157" s="0" t="n">
+      <c r="D157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="0" t="n">
+      <c r="B158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D158" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="0" t="n">
+      <c r="D158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D159" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="0" t="n">
+      <c r="D159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D160" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160" s="0" t="n">
+      <c r="D160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D161" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="0" t="n">
+      <c r="D161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="0" t="n">
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D162" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162" s="0" t="n">
+      <c r="D162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="0" t="n">
+      <c r="B163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D163" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" s="0" t="n">
+      <c r="D163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="0" t="n">
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D164" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="0" t="n">
+      <c r="D164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="0" t="n">
+      <c r="B165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D165" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" s="0" t="s">
+      <c r="D165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="0" t="n">
+      <c r="B166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D166" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" s="0" t="s">
+      <c r="D166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D167" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="0" t="n">
+      <c r="D167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="0" t="n">
+      <c r="B168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D168" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E168" s="0" t="n">
+      <c r="D168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D169" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="0" t="n">
+      <c r="D169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D170" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" s="0" t="n">
+      <c r="D170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D171" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="0" t="n">
+      <c r="D171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D172" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" s="0" t="n">
+      <c r="D172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D173" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="0" t="n">
+      <c r="D173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="0" t="n">
+      <c r="B174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D174" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E174" s="0" t="n">
+      <c r="D174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="0" t="n">
+      <c r="B175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D175" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="0" t="n">
+      <c r="D175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="0" t="n">
+      <c r="B176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D176" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" s="0" t="n">
+      <c r="D176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D177" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E177" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F177" s="0" t="s">
+      <c r="D177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D178" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" s="0" t="n">
+      <c r="D178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D179" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" s="0" t="n">
+      <c r="D179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D180" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180" s="0" t="n">
+      <c r="D180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C181" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" s="0" t="n">
+      <c r="C181" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D182" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" s="0" t="s">
+      <c r="D182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D183" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" s="0" t="n">
+      <c r="D183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="0" t="n">
+      <c r="B184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D184" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" s="0" t="n">
+      <c r="D184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="0" t="n">
+      <c r="B185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D185" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E185" s="0" t="n">
+      <c r="D185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="0" t="n">
+      <c r="B186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D186" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" s="0" t="n">
+      <c r="D186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" s="0" t="n">
+      <c r="B187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D187" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F187" s="0" t="s">
+      <c r="D187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D188" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188" s="0" t="n">
+      <c r="D188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E257" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C272" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C275" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/public/data/magic.xlsx
+++ b/public/data/magic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="55">
   <si>
     <t xml:space="preserve">Edición</t>
   </si>
@@ -146,6 +146,45 @@
   </si>
   <si>
     <t xml:space="preserve">GN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMC</t>
   </si>
 </sst>
 </file>
@@ -438,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F279"/>
+  <dimension ref="B1:F593"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E279" activeCellId="0" sqref="E279"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A573" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F592" activeCellId="0" sqref="F592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3222,7 +3261,7 @@
       <c r="E194" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3281,7 +3320,7 @@
       <c r="E198" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3340,7 +3379,7 @@
       <c r="E202" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F202" s="4" t="s">
+      <c r="F202" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3539,7 +3578,7 @@
       <c r="E216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F216" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3626,7 +3665,7 @@
       <c r="E222" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F222" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3869,7 +3908,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C240" s="1" t="n">
@@ -4007,7 +4046,7 @@
       <c r="E249" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F249" s="4" t="s">
+      <c r="F249" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4108,7 +4147,7 @@
       <c r="E256" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F256" s="4" t="s">
+      <c r="F256" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4195,7 +4234,7 @@
       <c r="E262" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F262" s="4" t="s">
+      <c r="F262" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4434,6 +4473,4453 @@
         <v>8</v>
       </c>
       <c r="E279" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C287" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C288" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C290" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C299" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C312" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C313" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B319" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B320" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C320" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B321" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C322" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B323" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C323" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B324" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E324" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B328" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C333" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B336" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B340" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B347" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B348" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B350" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E350" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C351" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B352" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C352" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B353" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C354" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E355" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B356" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E357" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B358" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C358" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B359" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C359" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E359" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B361" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C361" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B362" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C362" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B363" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C363" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C364" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E364" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C365" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E365" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C366" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C367" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E367" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C368" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E369" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C370" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E371" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C372" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E373" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C374" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E374" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E375" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E377" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E378" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C379" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E379" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E381" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C382" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E382" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E383" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E385" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E386" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F386" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C388" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E388" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C389" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E389" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C390" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C391" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E392" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C393" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E393" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B394" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C394" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E394" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E395" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E396" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C397" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C398" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E398" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C401" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E401" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E402" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C403" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C404" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C405" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E405" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C408" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E408" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E411" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C412" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C413" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E413" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C415" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E415" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C416" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E417" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C418" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E418" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C419" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E419" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C420" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C421" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E421" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C422" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E422" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C423" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C424" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E424" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C425" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E425" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C426" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E426" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C427" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E427" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F427" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E428" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C429" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F429" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C430" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E430" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C431" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E431" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F432" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E433" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C434" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E434" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C435" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E435" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C436" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E436" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C437" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C438" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C439" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E439" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C440" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E440" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E441" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E442" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C443" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C444" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E444" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C445" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E445" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C446" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E447" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C448" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E448" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C449" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C450" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E450" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C451" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F451" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C452" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E452" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C453" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E453" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C454" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E454" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C455" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E455" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B456" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C456" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E456" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C457" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E457" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C458" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E458" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C459" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E459" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C460" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E460" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C461" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E461" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C462" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E462" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C463" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E463" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E464" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C465" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E465" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F465" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C466" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E466" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E467" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C468" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E468" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C469" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E469" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C470" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E470" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F470" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C471" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E471" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C472" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E472" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C473" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E473" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C474" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E474" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E475" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C476" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E476" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C477" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E477" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C478" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E478" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C479" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E479" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C480" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E480" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C481" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E481" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C482" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E482" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F482" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C483" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E483" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C484" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E484" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C485" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E485" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C486" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E486" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F486" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C487" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E487" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C488" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E488" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C489" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E489" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C490" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E490" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C491" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E491" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C492" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E492" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C493" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E493" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C494" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E494" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C495" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E495" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C496" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E496" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C497" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E497" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C498" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E498" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C499" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E499" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C500" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E500" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C501" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E501" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B502" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C502" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E502" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B503" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E503" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B504" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E504" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B505" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E505" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B506" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C506" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E506" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B507" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C507" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E507" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B508" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C508" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E508" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C509" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E509" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C510" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E510" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B511" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C511" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E511" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B512" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C512" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E512" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B513" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C513" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E513" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C514" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E514" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C515" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E515" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C516" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E516" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C517" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E517" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B518" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C518" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E518" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B519" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C519" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E519" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C520" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E520" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C521" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E521" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C522" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E522" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C523" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E523" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C524" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E524" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C525" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E525" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B526" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C526" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E526" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C527" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E527" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E528" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C529" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E529" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C530" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E530" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C531" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E531" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C532" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E532" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C533" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E533" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C534" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E534" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E535" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C536" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E536" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C537" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E537" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C538" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E538" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C539" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E539" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C540" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E540" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B541" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C541" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E541" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B542" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C542" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E542" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B543" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C543" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E543" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C544" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E544" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B545" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C545" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E545" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B546" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C546" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E546" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C547" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E547" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C548" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E548" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B549" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C549" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E549" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B550" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C550" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E550" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C551" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E551" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C552" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E552" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C553" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E553" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C554" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E554" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C555" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E555" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C556" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E556" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C557" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E557" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C558" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E558" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C559" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E559" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C560" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E560" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C561" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E561" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C562" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E562" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C563" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E563" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C564" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E564" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C565" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E565" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C566" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E566" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B567" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C567" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E567" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B568" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C568" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E568" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B569" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C569" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E569" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C570" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E570" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B571" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C571" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E571" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B572" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C572" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E572" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B573" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C573" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E573" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B574" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C574" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B575" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C575" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E575" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B576" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C576" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E576" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B577" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C577" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E577" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B578" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C578" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E578" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F578" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B579" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C579" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E579" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B580" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E580" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C581" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E581" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C582" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E582" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E583" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C584" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E584" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C585" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E585" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C586" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E586" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C587" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E587" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C588" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E588" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B589" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E589" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B590" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C590" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E590" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C591" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E591" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C592" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E592" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C593" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E593" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/public/data/magic.xlsx
+++ b/public/data/magic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="64">
   <si>
     <t xml:space="preserve">Edición</t>
   </si>
@@ -185,6 +185,33 @@
   </si>
   <si>
     <t xml:space="preserve">DMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPH</t>
   </si>
 </sst>
 </file>
@@ -477,10 +504,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F593"/>
+  <dimension ref="B1:F615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A573" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F592" activeCellId="0" sqref="F592"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A597" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E616" activeCellId="0" sqref="E616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4615,7 +4642,7 @@
       <c r="E289" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F289" s="4" t="s">
+      <c r="F289" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4870,7 +4897,7 @@
       <c r="E307" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F307" s="4" t="s">
+      <c r="F307" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4999,7 +5026,7 @@
       <c r="E316" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F316" s="4" t="s">
+      <c r="F316" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5520,7 +5547,7 @@
       <c r="E353" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F353" s="4" t="s">
+      <c r="F353" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5579,7 +5606,7 @@
       <c r="E357" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F357" s="4" t="s">
+      <c r="F357" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5862,7 +5889,7 @@
       <c r="E377" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F377" s="4" t="s">
+      <c r="F377" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5991,7 +6018,7 @@
       <c r="E386" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F386" s="4" t="s">
+      <c r="F386" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6568,7 +6595,7 @@
       <c r="E427" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F427" s="4" t="s">
+      <c r="F427" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6599,7 +6626,7 @@
       <c r="E429" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F429" s="4" t="s">
+      <c r="F429" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6644,7 +6671,7 @@
       <c r="E432" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F432" s="4" t="s">
+      <c r="F432" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6913,7 +6940,7 @@
       <c r="E451" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F451" s="4" t="s">
+      <c r="F451" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7112,7 +7139,7 @@
       <c r="E465" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F465" s="4" t="s">
+      <c r="F465" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7185,7 +7212,7 @@
       <c r="E470" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F470" s="4" t="s">
+      <c r="F470" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7356,7 +7383,7 @@
       <c r="E482" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F482" s="4" t="s">
+      <c r="F482" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7415,7 +7442,7 @@
       <c r="E486" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F486" s="4" t="s">
+      <c r="F486" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7460,7 +7487,7 @@
       <c r="E489" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F489" s="4" t="s">
+      <c r="F489" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8709,7 +8736,7 @@
       <c r="E578" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F578" s="4" t="s">
+      <c r="F578" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8920,6 +8947,317 @@
         <v>6</v>
       </c>
       <c r="E593" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B594" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C594" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E594" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C595" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E595" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F595" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C596" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E596" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C597" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E597" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C598" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E598" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B599" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C599" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E599" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B600" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C600" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E600" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B601" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C601" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E601" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B602" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C602" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E602" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B603" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C603" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E603" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B604" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C604" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E604" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B605" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C605" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E605" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B606" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C606" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E606" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B607" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C607" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E607" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C608" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E608" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B609" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C609" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E609" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B610" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C610" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E610" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B611" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C611" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E611" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B612" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C612" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E612" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B613" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C613" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E613" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B614" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C614" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E614" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B615" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/public/data/magic.xlsx
+++ b/public/data/magic.xlsx
@@ -121,6 +121,9 @@
     <t xml:space="preserve">OTP</t>
   </si>
   <si>
+    <t xml:space="preserve">MM3</t>
+  </si>
+  <si>
     <t xml:space="preserve">STA</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">TSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM3</t>
   </si>
   <si>
     <t xml:space="preserve">MOM</t>
@@ -294,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,10 +308,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,8 +502,8 @@
   </sheetPr>
   <dimension ref="B1:F615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A597" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E616" activeCellId="0" sqref="E616"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2080,7 +2076,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>222</v>
@@ -3207,7 +3203,7 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>3</v>
@@ -3308,7 +3304,7 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>37</v>
@@ -3381,7 +3377,7 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>32</v>
@@ -3510,7 +3506,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>185</v>
@@ -4379,7 +4375,7 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>94</v>
@@ -7619,7 +7615,7 @@
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C499" s="1" t="n">
         <v>95</v>
@@ -8977,7 +8973,7 @@
       <c r="E595" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F595" s="4" t="s">
+      <c r="F595" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/public/data/magic.xlsx
+++ b/public/data/magic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="65">
   <si>
     <t xml:space="preserve">Edición</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">CLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta</t>
   </si>
   <si>
     <t xml:space="preserve">MID</t>
@@ -500,10 +503,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F615"/>
+  <dimension ref="B1:G615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C165" activeCellId="0" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1400,6 +1403,9 @@
       <c r="F62" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G62" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
@@ -1448,7 +1454,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>146</v>
@@ -1465,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>22</v>
@@ -1535,7 +1541,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>93</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>23</v>
@@ -1563,7 +1569,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>14</v>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>53</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>24</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>175</v>
@@ -1894,7 +1900,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>229</v>
@@ -2076,7 +2082,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>222</v>
@@ -2118,7 +2124,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>169</v>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>229</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>205</v>
@@ -2530,7 +2536,7 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>269</v>
@@ -2628,7 +2634,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>8</v>
@@ -2740,7 +2746,7 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>4</v>
@@ -2886,7 +2892,7 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>30</v>
@@ -3071,7 +3077,7 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>23</v>
@@ -3189,7 +3195,7 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>23</v>
@@ -3203,7 +3209,7 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>3</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>37</v>
@@ -3318,7 +3324,7 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>14</v>
@@ -3377,7 +3383,7 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>32</v>
@@ -3478,7 +3484,7 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>26</v>
@@ -3506,7 +3512,7 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>185</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C225" s="1" t="n">
         <v>104</v>
@@ -3736,7 +3742,7 @@
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>107</v>
@@ -3750,7 +3756,7 @@
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C227" s="1" t="n">
         <v>120</v>
@@ -3876,7 +3882,7 @@
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>116</v>
@@ -4375,7 +4381,7 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>94</v>
@@ -4389,7 +4395,7 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C272" s="1" t="n">
         <v>136</v>
@@ -4417,7 +4423,7 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C274" s="1" t="n">
         <v>117</v>
@@ -4431,7 +4437,7 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C275" s="1" t="n">
         <v>141</v>
@@ -4487,7 +4493,7 @@
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C279" s="1" t="n">
         <v>37</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C285" s="1" t="n">
         <v>153</v>
@@ -4585,7 +4591,7 @@
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C286" s="1" t="n">
         <v>111</v>
@@ -4599,7 +4605,7 @@
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C287" s="1" t="n">
         <v>136</v>
@@ -4613,7 +4619,7 @@
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>132</v>
@@ -4644,7 +4650,7 @@
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C290" s="1" t="n">
         <v>540</v>
@@ -4686,7 +4692,7 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C293" s="1" t="n">
         <v>38</v>
@@ -4756,7 +4762,7 @@
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C298" s="1" t="n">
         <v>139</v>
@@ -4854,7 +4860,7 @@
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C305" s="1" t="n">
         <v>186</v>
@@ -4927,7 +4933,7 @@
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C310" s="1" t="n">
         <v>144</v>
@@ -4955,7 +4961,7 @@
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>201</v>
@@ -4997,7 +5003,7 @@
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C315" s="1" t="n">
         <v>134</v>
@@ -5070,7 +5076,7 @@
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C320" s="1" t="n">
         <v>169</v>
@@ -5140,7 +5146,7 @@
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>298</v>
@@ -5168,7 +5174,7 @@
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>174</v>
@@ -5252,7 +5258,7 @@
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C333" s="1" t="n">
         <v>301</v>
@@ -5266,7 +5272,7 @@
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C334" s="1" t="n">
         <v>163</v>
@@ -5280,7 +5286,7 @@
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C335" s="1" t="n">
         <v>152</v>
@@ -5504,7 +5510,7 @@
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C351" s="1" t="n">
         <v>158</v>
@@ -5678,7 +5684,7 @@
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C363" s="1" t="n">
         <v>158</v>
@@ -5692,7 +5698,7 @@
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C364" s="1" t="n">
         <v>252</v>
@@ -5734,7 +5740,7 @@
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C367" s="1" t="n">
         <v>177</v>
@@ -6258,7 +6264,7 @@
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C404" s="1" t="n">
         <v>100</v>
@@ -6272,7 +6278,7 @@
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C405" s="1" t="n">
         <v>291</v>
@@ -6356,7 +6362,7 @@
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C411" s="1" t="n">
         <v>89</v>
@@ -6524,7 +6530,7 @@
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C423" s="1" t="n">
         <v>80</v>
@@ -6642,7 +6648,7 @@
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B431" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C431" s="1" t="n">
         <v>74</v>
@@ -6743,7 +6749,7 @@
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B438" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C438" s="1" t="n">
         <v>72</v>
@@ -6883,7 +6889,7 @@
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C448" s="1" t="n">
         <v>99</v>
@@ -7082,7 +7088,7 @@
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C462" s="1" t="n">
         <v>58</v>
@@ -7124,7 +7130,7 @@
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B465" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C465" s="1" t="n">
         <v>48</v>
@@ -7312,7 +7318,7 @@
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B478" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C478" s="1" t="n">
         <v>36</v>
@@ -7385,7 +7391,7 @@
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B483" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C483" s="1" t="n">
         <v>43</v>
@@ -7489,7 +7495,7 @@
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C490" s="1" t="n">
         <v>336</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B491" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C491" s="1" t="n">
         <v>47</v>
@@ -7531,7 +7537,7 @@
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C493" s="1" t="n">
         <v>50</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B496" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C496" s="1" t="n">
         <v>74</v>
@@ -7615,7 +7621,7 @@
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B499" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C499" s="1" t="n">
         <v>95</v>
@@ -7643,7 +7649,7 @@
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B501" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C501" s="1" t="n">
         <v>66</v>
@@ -7657,7 +7663,7 @@
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B502" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C502" s="1" t="n">
         <v>35</v>
@@ -7741,7 +7747,7 @@
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B508" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C508" s="1" t="n">
         <v>50</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C514" s="1" t="n">
         <v>60</v>
@@ -7909,7 +7915,7 @@
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C520" s="1" t="n">
         <v>70</v>
@@ -7965,7 +7971,7 @@
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B524" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C524" s="1" t="n">
         <v>44</v>
@@ -8133,7 +8139,7 @@
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C536" s="1" t="n">
         <v>38</v>
@@ -8245,7 +8251,7 @@
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C544" s="1" t="n">
         <v>53</v>
@@ -8399,7 +8405,7 @@
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C555" s="1" t="n">
         <v>48</v>
@@ -8455,7 +8461,7 @@
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B559" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C559" s="1" t="n">
         <v>243</v>
@@ -8511,7 +8517,7 @@
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C563" s="1" t="n">
         <v>234</v>
@@ -8581,7 +8587,7 @@
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B568" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C568" s="1" t="n">
         <v>247</v>
@@ -8679,7 +8685,7 @@
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C575" s="1" t="n">
         <v>241</v>
@@ -8693,7 +8699,7 @@
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B576" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C576" s="1" t="n">
         <v>189</v>
@@ -8979,7 +8985,7 @@
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C596" s="1" t="n">
         <v>5</v>
@@ -8993,7 +8999,7 @@
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B597" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C597" s="1" t="n">
         <v>61</v>
@@ -9007,7 +9013,7 @@
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B598" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C598" s="1" t="n">
         <v>239</v>
@@ -9021,7 +9027,7 @@
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B599" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C599" s="1" t="n">
         <v>100</v>
@@ -9035,7 +9041,7 @@
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B600" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C600" s="1" t="n">
         <v>80</v>
@@ -9049,7 +9055,7 @@
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B601" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C601" s="1" t="n">
         <v>113</v>
@@ -9063,7 +9069,7 @@
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C602" s="1" t="n">
         <v>115</v>
@@ -9077,7 +9083,7 @@
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B603" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C603" s="1" t="n">
         <v>110</v>
@@ -9091,7 +9097,7 @@
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C604" s="1" t="n">
         <v>83</v>
@@ -9105,7 +9111,7 @@
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C605" s="1" t="n">
         <v>103</v>
@@ -9119,7 +9125,7 @@
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C606" s="1" t="n">
         <v>63</v>
@@ -9133,7 +9139,7 @@
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C607" s="1" t="n">
         <v>71</v>
@@ -9147,7 +9153,7 @@
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C608" s="1" t="n">
         <v>114</v>
@@ -9161,7 +9167,7 @@
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C609" s="1" t="n">
         <v>97</v>
@@ -9175,7 +9181,7 @@
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C610" s="1" t="n">
         <v>89</v>
@@ -9189,7 +9195,7 @@
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B611" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C611" s="1" t="n">
         <v>40</v>
@@ -9203,7 +9209,7 @@
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B612" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C612" s="1" t="n">
         <v>185</v>
@@ -9217,7 +9223,7 @@
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C613" s="1" t="n">
         <v>70</v>
@@ -9231,7 +9237,7 @@
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C614" s="1" t="n">
         <v>55</v>
@@ -9245,7 +9251,7 @@
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C615" s="1" t="n">
         <v>118</v>
